--- a/public/auth.xlsx
+++ b/public/auth.xlsx
@@ -1,176 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Change Academy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3E3E0E-9527-40F1-81E9-15810F81D255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{262D009B-F501-41C1-B1B9-10A79890D893}"/>
+    <workbookView windowWidth="22188" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>tên</t>
   </si>
   <si>
+    <t>stt</t>
+  </si>
+  <si>
     <t>mật khẩu</t>
   </si>
   <si>
     <t>đặng thị huyền trang</t>
   </si>
   <si>
+    <t>dangthihuyentrang</t>
+  </si>
+  <si>
     <t>0944189168</t>
   </si>
   <si>
     <t>Nguyễn Thuý Vi</t>
   </si>
   <si>
+    <t>nguyenthuyvi</t>
+  </si>
+  <si>
     <t>0369487418</t>
   </si>
   <si>
     <t>Nguyễn Thị Ngọc Nguyên</t>
   </si>
   <si>
+    <t>nguyenthingocnguyen</t>
+  </si>
+  <si>
     <t>0988684055</t>
   </si>
   <si>
     <t>Hoàng Ngọc Quynh</t>
   </si>
   <si>
+    <t>hoangngocquynh</t>
+  </si>
+  <si>
     <t>0795234678</t>
   </si>
   <si>
     <t>Phó thị như thảo</t>
   </si>
   <si>
+    <t>phothinhuthao</t>
+  </si>
+  <si>
     <t>0908417704</t>
   </si>
   <si>
     <t>Hồ thị diễm thu</t>
   </si>
   <si>
+    <t>hothidiemthu</t>
+  </si>
+  <si>
     <t>0937787791</t>
   </si>
   <si>
     <t>Phạm Thi Ngọc Tuyền</t>
   </si>
   <si>
+    <t>phamthingoctuyen</t>
+  </si>
+  <si>
     <t>0908283835</t>
   </si>
   <si>
     <t>kelly Nguyen</t>
   </si>
   <si>
+    <t>kellynguyen</t>
+  </si>
+  <si>
     <t>0783917520</t>
   </si>
   <si>
     <t>Phan Thùy An</t>
   </si>
   <si>
+    <t>phanthuyan</t>
+  </si>
+  <si>
+    <t>01088678341</t>
+  </si>
+  <si>
     <t>Phạm Thị Thảo Ny</t>
   </si>
   <si>
+    <t>phamthithaony</t>
+  </si>
+  <si>
     <t>0914181228</t>
   </si>
   <si>
     <t>Trần Thị Dung</t>
   </si>
   <si>
+    <t>tranthidung</t>
+  </si>
+  <si>
     <t>0935046248</t>
   </si>
   <si>
     <t>Nguyễn Phan Thiên Lương</t>
   </si>
   <si>
-    <t>01088678341</t>
+    <t>nguyenphanthienluong</t>
   </si>
   <si>
     <t>0385394141</t>
   </si>
   <si>
-    <t>dangthihuyentrang</t>
-  </si>
-  <si>
-    <t>nguyenthuyvi</t>
-  </si>
-  <si>
-    <t>nguyenthingocnguyen</t>
-  </si>
-  <si>
-    <t>hoangngocquynh</t>
-  </si>
-  <si>
-    <t>phothinhuthao</t>
-  </si>
-  <si>
-    <t>hothidiemthu</t>
-  </si>
-  <si>
-    <t>phamthingoctuyen</t>
-  </si>
-  <si>
-    <t>kellynguyen</t>
-  </si>
-  <si>
-    <t>phanthuyan</t>
-  </si>
-  <si>
-    <t>phamthithaony</t>
-  </si>
-  <si>
-    <t>tranthidung</t>
-  </si>
-  <si>
-    <t>nguyenphanthienluong</t>
-  </si>
-  <si>
     <t>Nguyễn Ngọc Hân</t>
   </si>
   <si>
+    <t>nguyenngochan</t>
+  </si>
+  <si>
     <t>0933653526</t>
   </si>
   <si>
-    <t>nguyenngochan</t>
-  </si>
-  <si>
     <t>Lana Vu</t>
   </si>
   <si>
+    <t>lanavu</t>
+  </si>
+  <si>
     <t>9186296706</t>
   </si>
   <si>
-    <t>lanavu</t>
-  </si>
-  <si>
-    <t>stt</t>
-  </si>
-  <si>
     <t>Tiên Lê</t>
   </si>
   <si>
+    <t>tienle</t>
+  </si>
+  <si>
     <t>4695375206</t>
   </si>
   <si>
-    <t>tienle</t>
-  </si>
-  <si>
     <t>emilynguyen</t>
   </si>
   <si>
@@ -187,18 +176,48 @@
   </si>
   <si>
     <t>0903514997</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>0342705213</t>
+  </si>
+  <si>
+    <t>trinhnguyen</t>
+  </si>
+  <si>
+    <t>0906399611</t>
+  </si>
+  <si>
+    <t>baonhi</t>
+  </si>
+  <si>
+    <t>0932125747</t>
+  </si>
+  <si>
+    <t>lengoctrinh</t>
+  </si>
+  <si>
+    <t>0907180388</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,19 +225,362 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14.05"/>
+      <color rgb="FFE4E6EB"/>
+      <name val="Segoe UI Historic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -228,56 +590,343 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -326,7 +975,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -359,26 +1008,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -411,23 +1043,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,202 +1184,197 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19696DFE-FC54-43E4-836F-F76F06FAE882}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5740740740741" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28703703703704" customWidth="1"/>
+    <col min="3" max="3" width="22.1388888888889" customWidth="1"/>
+    <col min="4" max="4" width="12.287037037037" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5">
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5">
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5">
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5">
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5">
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>36</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
       </c>
       <c r="B13" s="5">
         <v>12</v>
@@ -773,12 +1383,12 @@
         <v>37</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="5">
         <v>13</v>
@@ -787,12 +1397,12 @@
         <v>40</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="5">
         <v>14</v>
@@ -801,10 +1411,10 @@
         <v>43</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="20.4" spans="1:7">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -812,13 +1422,14 @@
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="8">
         <v>16</v>
       </c>
@@ -829,29 +1440,74 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
+    <row r="18" spans="2:4">
+      <c r="B18" s="9">
         <v>17</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
+    <row r="19" spans="2:4">
+      <c r="B19" s="9">
         <v>18</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="8">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="9">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="9">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="8">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/public/auth.xlsx
+++ b/public/auth.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9144"/>
+    <workbookView windowWidth="10668" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>tên</t>
   </si>
@@ -200,6 +200,36 @@
   </si>
   <si>
     <t>0907180388</t>
+  </si>
+  <si>
+    <t>haisam</t>
+  </si>
+  <si>
+    <t>0969344566</t>
+  </si>
+  <si>
+    <t>vitran</t>
+  </si>
+  <si>
+    <t>8325135020</t>
+  </si>
+  <si>
+    <t>luongvidiep</t>
+  </si>
+  <si>
+    <t>0981230391</t>
+  </si>
+  <si>
+    <t>havy</t>
+  </si>
+  <si>
+    <t>0866068883</t>
+  </si>
+  <si>
+    <t>nguyenthithanhnhan</t>
+  </si>
+  <si>
+    <t>0706351916</t>
   </si>
 </sst>
 </file>
@@ -212,7 +242,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,13 +263,6 @@
       <color rgb="FFE4E6EB"/>
       <name val="Segoe UI Historic"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -715,148 +738,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1190,10 +1213,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1506,6 +1529,61 @@
         <v>61</v>
       </c>
     </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="9">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="9">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="8">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="9">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="9">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
